--- a/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
+++ b/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
@@ -52,13 +52,13 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t>The proportion of the population that is imprisoned (per 100.000) is an indicator for the crime and the justice system of a country.  The indicator was proposed by the Sustainable Development Solutions Network and is a component of the Humen Development Index. Generally, a low prison population rate points to a low crime rate. Nevertheless, it is also possible that a the prison population is interlinked with the prison capacity or the detention policies of a country. Furthermore, prison population numbers do not yield any information about the conditions in prisons. For instance, Bosnia and Herzegovina has a comparatively low prison population rate, but the Council of Europe reported abuse of prisoners and understaffing in some prisons.</t>
+    <t>The proportion of the population that is imprisoned (per 100,000) is an indicator for the crime and the justice system of a country.  The indicator was proposed by the Sustainable Development Solutions Network and is a component of the Humen Development Index. Generally, a low prison population rate points to a low crime rate. Nevertheless, it is also possible that a the prison population is interlinked with the prison capacity or the detention policies of a country. Furthermore, prison population numbers do not yield any information about the conditions in prisons. For instance, Bosnia and Herzegovina has a comparatively low prison population rate, but the Council of Europe reported abuse of prisoners and understaffing in some prisons.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
   </si>
   <si>
-    <t>Anzahl pro 100.000 Einwohner</t>
+    <t>per 100,000 inhabitants</t>
   </si>
   <si>
     <t>long_indicator_description$de$text</t>
@@ -70,7 +70,7 @@
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
-    <t>Number per 100.000 inhabitants</t>
+    <t>pro 100.000 Einwohner</t>
   </si>
   <si>
     <t>target</t>
@@ -573,7 +573,7 @@
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3"/>
@@ -595,7 +595,7 @@
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3"/>

--- a/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
+++ b/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
@@ -166,7 +166,7 @@
     <t>source$value</t>
   </si>
   <si>
-    <t>Sustainable Development Solutions Network</t>
+    <t>SDSN</t>
   </si>
   <si>
     <t>source$maintainer</t>

--- a/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
+++ b/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
@@ -468,7 +468,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
+++ b/datastatic/datasets/online/SDG16_Prison_population_WorldPrisonBrief_2013.xlsx
@@ -468,7 +468,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
